--- a/Статистика_rtd_070419_11-16.xlsx
+++ b/Статистика_rtd_070419_11-16.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmoskovskiy\Desktop\RTD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alearkhipov\Desktop\GIT РЕПА\GIT-REPA\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C135AF67-C354-4355-8061-821168752DA0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11385"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="rtd_0704_11_16" localSheetId="0">Лист1!$A$1:$B$68</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,8 +28,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="rtd_0704_11-16" type="6" refreshedVersion="5" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="rtd_0704_11-16" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="65001" sourceFile="C:\Users\mmoskovskiy\Downloads\rtd_0704_11-16.csv" decimal="," thousands=" " tab="0" comma="1">
       <textFields count="2">
         <textField/>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t xml:space="preserve">Endpoint </t>
   </si>
@@ -253,12 +254,15 @@
   </si>
   <si>
     <t>ИТОГО:</t>
+  </si>
+  <si>
+    <t>ававыаыаыаы</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -366,7 +370,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="rtd_0704_11-16" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="rtd_0704_11-16" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -631,20 +635,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C70"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="57" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -655,7 +659,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -667,7 +671,7 @@
         <v>14.884499999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -679,7 +683,7 @@
         <v>13.076500000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -691,7 +695,7 @@
         <v>8.9190555555555555</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -703,7 +707,7 @@
         <v>6.7946111111111103</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -715,7 +719,7 @@
         <v>6.7722222222222221</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -727,7 +731,7 @@
         <v>5.6797222222222219</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -739,7 +743,7 @@
         <v>5.117</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
@@ -751,7 +755,7 @@
         <v>4.0625</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -763,7 +767,7 @@
         <v>4.0507222222222223</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
@@ -775,7 +779,7 @@
         <v>3.8531111111111112</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
@@ -787,7 +791,7 @@
         <v>3.6376666666666666</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
@@ -799,7 +803,7 @@
         <v>3.0395000000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
@@ -811,7 +815,7 @@
         <v>2.915</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
@@ -823,7 +827,7 @@
         <v>2.7681111111111112</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
@@ -835,7 +839,7 @@
         <v>2.5485555555555552</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>18</v>
       </c>
@@ -847,7 +851,7 @@
         <v>2.2434444444444441</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>19</v>
       </c>
@@ -859,7 +863,7 @@
         <v>2.2386666666666666</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>20</v>
       </c>
@@ -871,7 +875,7 @@
         <v>1.9255555555555555</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>21</v>
       </c>
@@ -883,7 +887,7 @@
         <v>1.4367222222222222</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>22</v>
       </c>
@@ -895,7 +899,7 @@
         <v>1.1580000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>23</v>
       </c>
@@ -907,7 +911,7 @@
         <v>0.96750000000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>24</v>
       </c>
@@ -919,7 +923,7 @@
         <v>0.92072222222222222</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>25</v>
       </c>
@@ -931,7 +935,7 @@
         <v>0.9037222222222222</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>26</v>
       </c>
@@ -943,7 +947,7 @@
         <v>0.83966666666666667</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>27</v>
       </c>
@@ -955,7 +959,7 @@
         <v>0.83955555555555561</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>28</v>
       </c>
@@ -967,7 +971,7 @@
         <v>0.83438888888888896</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>29</v>
       </c>
@@ -979,7 +983,7 @@
         <v>0.80294444444444446</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>30</v>
       </c>
@@ -991,7 +995,7 @@
         <v>0.75088888888888883</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>31</v>
       </c>
@@ -1003,7 +1007,7 @@
         <v>0.71194444444444449</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>32</v>
       </c>
@@ -1015,7 +1019,7 @@
         <v>0.71133333333333337</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>33</v>
       </c>
@@ -1027,7 +1031,7 @@
         <v>0.62577777777777788</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>34</v>
       </c>
@@ -1039,7 +1043,7 @@
         <v>0.56627777777777777</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>35</v>
       </c>
@@ -1051,7 +1055,7 @@
         <v>0.45300000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>36</v>
       </c>
@@ -1063,7 +1067,7 @@
         <v>0.41694444444444445</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>37</v>
       </c>
@@ -1075,7 +1079,7 @@
         <v>0.40611111111111109</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>38</v>
       </c>
@@ -1087,7 +1091,7 @@
         <v>0.33616666666666667</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>39</v>
       </c>
@@ -1099,7 +1103,7 @@
         <v>0.3270555555555556</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>40</v>
       </c>
@@ -1111,7 +1115,7 @@
         <v>0.28572222222222221</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>41</v>
       </c>
@@ -1123,7 +1127,7 @@
         <v>0.23661111111111111</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>42</v>
       </c>
@@ -1135,7 +1139,7 @@
         <v>0.18822222222222224</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>43</v>
       </c>
@@ -1147,7 +1151,7 @@
         <v>0.13916666666666666</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>44</v>
       </c>
@@ -1159,7 +1163,7 @@
         <v>0.12572222222222224</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>45</v>
       </c>
@@ -1171,7 +1175,7 @@
         <v>0.11966666666666667</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>46</v>
       </c>
@@ -1183,7 +1187,7 @@
         <v>9.9166666666666667E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>47</v>
       </c>
@@ -1195,7 +1199,7 @@
         <v>9.4944444444444442E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>48</v>
       </c>
@@ -1207,7 +1211,7 @@
         <v>8.7722222222222229E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>49</v>
       </c>
@@ -1219,7 +1223,7 @@
         <v>8.744444444444445E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>50</v>
       </c>
@@ -1231,7 +1235,7 @@
         <v>8.2722222222222225E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
         <v>51</v>
       </c>
@@ -1243,7 +1247,7 @@
         <v>7.8833333333333339E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>52</v>
       </c>
@@ -1255,7 +1259,7 @@
         <v>6.8944444444444447E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>53</v>
       </c>
@@ -1267,7 +1271,7 @@
         <v>6.805555555555555E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
         <v>54</v>
       </c>
@@ -1279,7 +1283,7 @@
         <v>6.4222222222222222E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
         <v>55</v>
       </c>
@@ -1291,7 +1295,7 @@
         <v>6.4166666666666664E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
         <v>56</v>
       </c>
@@ -1303,7 +1307,7 @@
         <v>6.0611111111111109E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
         <v>57</v>
       </c>
@@ -1315,7 +1319,7 @@
         <v>5.1944444444444446E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
         <v>58</v>
       </c>
@@ -1327,7 +1331,7 @@
         <v>4.6388888888888889E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
         <v>59</v>
       </c>
@@ -1339,7 +1343,7 @@
         <v>2.6277777777777775E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
         <v>60</v>
       </c>
@@ -1351,7 +1355,7 @@
         <v>1.4111111111111111E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
         <v>61</v>
       </c>
@@ -1363,7 +1367,7 @@
         <v>1.2944444444444444E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
         <v>62</v>
       </c>
@@ -1375,7 +1379,7 @@
         <v>1.2833333333333334E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
         <v>63</v>
       </c>
@@ -1387,7 +1391,7 @@
         <v>1.2833333333333334E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
         <v>64</v>
       </c>
@@ -1399,7 +1403,7 @@
         <v>1.2666666666666666E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
         <v>65</v>
       </c>
@@ -1411,7 +1415,7 @@
         <v>1.161111111111111E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
         <v>66</v>
       </c>
@@ -1423,7 +1427,7 @@
         <v>9.9444444444444433E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
         <v>67</v>
       </c>
@@ -1435,7 +1439,7 @@
         <v>3.1666666666666666E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
         <v>68</v>
       </c>
@@ -1447,7 +1451,7 @@
         <v>2.2777777777777774E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
         <v>69</v>
       </c>
@@ -1459,13 +1463,18 @@
         <v>1.5E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B70" s="5" t="s">
         <v>70</v>
       </c>
       <c r="C70" s="6">
         <f>SUM(C1:C68)</f>
         <v>110.70561111111112</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
